--- a/biology/Zoologie/Anodonte_des_cygnes/Anodonte_des_cygnes.xlsx
+++ b/biology/Zoologie/Anodonte_des_cygnes/Anodonte_des_cygnes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anodonta cygnea
 L'anodonte des cygnes (Anodonta cygnea), ou anodonte des étangs, ou mulette des cygnes ou moule d’eau douce est une espèce de mollusques bivalves de la famille des Unionidae.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa distribution originelle est la zone paléarctique de l'est, des îles Britanniques à la Sibérie et, vers le sud, jusqu'en Afrique du Nord.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce mollusque vit sur la vase et les gravières de fond d'étendues d'eau stagnantes ou à faible courant
 </t>
@@ -574,7 +590,9 @@
           <t>Description de la coquille</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La coquille présente une longueur de 95 à 200 mm et une hauteur de 60 à 120 mm. Son épaisseur est comprise entre 30 et 60 mm, avec des valves à parois fines. Un des côtés est pointu.
 </t>
@@ -605,21 +623,23 @@
           <t>État de protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Liste rouge mondiale des espèces menacées (Novembre 2012): LC (UICN).
 Liste rouge européenne des espèces menacées (2012) : NT (IUCN).
 Belgique
-Allemagne - en grand danger (Stark gefährdet) [1] Listé en tant qu'espèce protégée à l'annexe 1 du Bundesartenschutzverordnung.
+Allemagne - en grand danger (Stark gefährdet)  Listé en tant qu'espèce protégée à l'annexe 1 du Bundesartenschutzverordnung.
 Croatie
 France: espèce non protégée. On la retrouve en Moselle, Loiret, etc.
 Îles Britanniques
 Italie
-Pays-Bas - oui[2]
-Pologne - en danger[3]
+Pays-Bas - oui
+Pologne - en danger
 Slovaquie
-Suède - relativement rare[4]
-République tchèque vulnérable (VU)[5]. Code tchèque, Décret No. 395/1992 Sb. (and No. 175/2006 Sb.) - espèces très menacées.</t>
+Suède - relativement rare
+République tchèque vulnérable (VU). Code tchèque, Décret No. 395/1992 Sb. (and No. 175/2006 Sb.) - espèces très menacées.</t>
         </is>
       </c>
     </row>
